--- a/расчеты сделок.xlsx
+++ b/расчеты сделок.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olegviktorovich/Documents/finam-bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00661ED0-BD33-8F43-8F34-136280D5E8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1948AB4-52A1-C945-9BB8-4C427BE8E8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{7F7AE1F0-72F4-3049-9FAA-E877B6BC65BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -493,7 +493,7 @@
   <dimension ref="B1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -555,25 +555,25 @@
         <v>-0.52200000000000002</v>
       </c>
       <c r="E4" s="1">
-        <v>95266</v>
+        <v>95411</v>
       </c>
       <c r="F4" s="1">
         <f>(E4-E5*1000)/1000</f>
-        <v>-0.19400000000000001</v>
+        <v>-8.8999999999999996E-2</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="1">
         <f>C4-E4</f>
-        <v>-1248</v>
+        <v>-1393</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K4" s="1">
         <f>E4-C4</f>
-        <v>1248</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
@@ -584,21 +584,21 @@
         <v>94.54</v>
       </c>
       <c r="E5" s="1">
-        <v>95.46</v>
+        <v>95.5</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="1">
         <f>(E5-C5)*1000</f>
-        <v>919.99999999998749</v>
+        <v>959.99999999999375</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K5" s="1">
         <f>(C5-E5)*1000</f>
-        <v>-919.99999999998749</v>
+        <v>-959.99999999999375</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
@@ -607,14 +607,14 @@
       </c>
       <c r="H7" s="1">
         <f>H4+H5</f>
-        <v>-328.00000000001251</v>
+        <v>-433.00000000000625</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K7" s="1">
         <f>K4+K5</f>
-        <v>328.00000000001251</v>
+        <v>433.00000000000625</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">

--- a/расчеты сделок.xlsx
+++ b/расчеты сделок.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olegviktorovich/Documents/finam-bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1948AB4-52A1-C945-9BB8-4C427BE8E8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012AB5F2-EA7E-9A44-A7AD-B995986A91D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{7F7AE1F0-72F4-3049-9FAA-E877B6BC65BC}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" activeTab="1" xr2:uid="{7F7AE1F0-72F4-3049-9FAA-E877B6BC65BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="показатели" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,17 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>Вход</t>
   </si>
   <si>
-    <t>Си</t>
-  </si>
-  <si>
-    <t>Рубф</t>
-  </si>
-  <si>
     <t>Спред</t>
   </si>
   <si>
@@ -104,9 +99,6 @@
     <t>рубф шорт</t>
   </si>
   <si>
-    <t>си дешевле чем рубф</t>
-  </si>
-  <si>
     <t>си дороже чем рубф</t>
   </si>
   <si>
@@ -120,6 +112,51 @@
   </si>
   <si>
     <t>было</t>
+  </si>
+  <si>
+    <t>ng9.23</t>
+  </si>
+  <si>
+    <t>ng10.23</t>
+  </si>
+  <si>
+    <t>9,23 дешевле чем 10,23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 gaz растет </t>
+  </si>
+  <si>
+    <t>9,23 шорт</t>
+  </si>
+  <si>
+    <t>спред был -0,4 стал -0,3</t>
+  </si>
+  <si>
+    <t>9,23 лонг</t>
+  </si>
+  <si>
+    <t>10,23 шорт</t>
+  </si>
+  <si>
+    <t>10,23 лонг</t>
+  </si>
+  <si>
+    <t>2 газ падает</t>
+  </si>
+  <si>
+    <t>Оценка портфеля вход</t>
+  </si>
+  <si>
+    <t>Оценка портфеля тек</t>
+  </si>
+  <si>
+    <t>Прибыль за все время</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спред </t>
+  </si>
+  <si>
+    <t>Открытые сделки:</t>
   </si>
 </sst>
 </file>
@@ -144,12 +181,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -164,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -176,6 +219,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -492,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{092B5CF4-2A56-D94F-8C2F-5D8CC122A9D2}">
   <dimension ref="B1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -510,11 +560,11 @@
         <v>45498</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
@@ -522,124 +572,121 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1">
-        <v>94018</v>
+        <v>2.6749999999999998</v>
       </c>
       <c r="D4" s="1">
-        <f>(C4-C5*1000)/1000</f>
-        <v>-0.52200000000000002</v>
+        <f>(C5-C4)</f>
+        <v>0.32600000000000007</v>
       </c>
       <c r="E4" s="1">
-        <v>95411</v>
+        <v>2.7610000000000001</v>
       </c>
       <c r="F4" s="1">
-        <f>(E4-E5*1000)/1000</f>
-        <v>-8.8999999999999996E-2</v>
+        <f>(E5-E4)</f>
+        <v>0.28699999999999992</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H4" s="1">
         <f>C4-E4</f>
-        <v>-1393</v>
+        <v>-8.6000000000000298E-2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K4" s="1">
         <f>E4-C4</f>
-        <v>1393</v>
+        <v>8.6000000000000298E-2</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1">
-        <v>94.54</v>
+        <v>3.0009999999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>95.5</v>
+        <v>3.048</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H5" s="1">
-        <f>(E5-C5)*1000</f>
-        <v>959.99999999999375</v>
+        <f>(E5-C5)</f>
+        <v>4.7000000000000153E-2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K5" s="1">
-        <f>(C5-E5)*1000</f>
-        <v>-959.99999999999375</v>
+        <f>(C5-E5)</f>
+        <v>-4.7000000000000153E-2</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="G7" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H7" s="1">
         <f>H4+H5</f>
-        <v>-433.00000000000625</v>
+        <v>-3.9000000000000146E-2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K7" s="1">
         <f>K4+K5</f>
-        <v>433.00000000000625</v>
+        <v>3.9000000000000146E-2</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>19</v>
+      <c r="J11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
@@ -650,18 +697,18 @@
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
@@ -683,24 +730,24 @@
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>19</v>
+      <c r="J16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
@@ -717,20 +764,20 @@
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
@@ -756,7 +803,7 @@
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -781,21 +828,21 @@
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E23" s="2"/>
       <c r="G23" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
@@ -805,18 +852,18 @@
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
@@ -831,20 +878,20 @@
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
@@ -855,20 +902,95 @@
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K30" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE804FE-BD8F-F44E-9130-DD1C6BECA22A}">
+  <dimension ref="B2:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="22.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C2" s="6">
+        <v>44955</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3">
+        <v>53771</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4">
+        <v>54076</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5">
+        <v>-3425</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="7"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>